--- a/Analyzed/try2/data_2022.xlsx
+++ b/Analyzed/try2/data_2022.xlsx
@@ -541,13 +541,13 @@
         <v>1609.142</v>
       </c>
       <c r="L2">
-        <v>73.60000000000001</v>
+        <v>2576</v>
       </c>
       <c r="M2">
         <v>69.32323032388042</v>
       </c>
       <c r="N2">
-        <v>32.17000000000001</v>
+        <v>932.9300000000001</v>
       </c>
       <c r="O2">
         <v>1249.65</v>
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="Z2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA2">
         <v>2</v>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>1692.263</v>
       </c>
       <c r="L3">
-        <v>60.8</v>
+        <v>2128</v>
       </c>
       <c r="M3">
         <v>68.68480849853732</v>
       </c>
       <c r="N3">
-        <v>39.77</v>
+        <v>1153.33</v>
       </c>
       <c r="O3">
         <v>1108.75</v>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z3">
         <v>4</v>
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="AC3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1472.504</v>
       </c>
       <c r="L4">
-        <v>72</v>
+        <v>2520</v>
       </c>
       <c r="M4">
         <v>64.53697394221599</v>
       </c>
       <c r="N4">
-        <v>132.46</v>
+        <v>3841.34</v>
       </c>
       <c r="O4">
         <v>1349.99</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1536.406</v>
       </c>
       <c r="L5">
-        <v>63.2</v>
+        <v>2212</v>
       </c>
       <c r="M5">
         <v>64.18839129401262</v>
       </c>
       <c r="N5">
-        <v>83.62</v>
+        <v>2424.98</v>
       </c>
       <c r="O5">
         <v>1079.28</v>
@@ -853,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>1348.258</v>
       </c>
       <c r="L6">
-        <v>71</v>
+        <v>2485</v>
       </c>
       <c r="M6">
         <v>58.04831615861254</v>
       </c>
       <c r="N6">
-        <v>83.05000000000001</v>
+        <v>2408.45</v>
       </c>
       <c r="O6">
         <v>1317.21</v>
@@ -996,13 +996,13 @@
         <v>1775.156</v>
       </c>
       <c r="L7">
-        <v>66</v>
+        <v>2310</v>
       </c>
       <c r="M7">
         <v>67.66232894106717</v>
       </c>
       <c r="N7">
-        <v>71.32000000000001</v>
+        <v>2068.28</v>
       </c>
       <c r="O7">
         <v>1194.72</v>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1087,13 +1087,13 @@
         <v>2258.95</v>
       </c>
       <c r="L8">
-        <v>66.8</v>
+        <v>2338</v>
       </c>
       <c r="M8">
         <v>76.63927162963951</v>
       </c>
       <c r="N8">
-        <v>74.89</v>
+        <v>2171.81</v>
       </c>
       <c r="O8">
         <v>1303.89</v>
@@ -1126,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>3</v>
@@ -1178,13 +1178,13 @@
         <v>1750.683</v>
       </c>
       <c r="L9">
-        <v>61.2</v>
+        <v>2142</v>
       </c>
       <c r="M9">
         <v>69.35841887961003</v>
       </c>
       <c r="N9">
-        <v>41.05</v>
+        <v>1190.45</v>
       </c>
       <c r="O9">
         <v>1281.84</v>
@@ -1217,10 +1217,10 @@
         <v>2</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1269,13 +1269,13 @@
         <v>2360.25</v>
       </c>
       <c r="L10">
-        <v>63.7</v>
+        <v>2229.5</v>
       </c>
       <c r="M10">
         <v>72.83562769006593</v>
       </c>
       <c r="N10">
-        <v>33.52</v>
+        <v>972.0799999999998</v>
       </c>
       <c r="O10">
         <v>1186.88</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1360,13 +1360,13 @@
         <v>1442.361</v>
       </c>
       <c r="L11">
-        <v>56</v>
+        <v>1960</v>
       </c>
       <c r="M11">
         <v>77.88472439480461</v>
       </c>
       <c r="N11">
-        <v>39.04</v>
+        <v>1132.16</v>
       </c>
       <c r="O11">
         <v>1431.66</v>
@@ -1399,10 +1399,10 @@
         <v>8</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
